--- a/assets/supplementary_materials/DATA_S3.xlsx
+++ b/assets/supplementary_materials/DATA_S3.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14013" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14014" uniqueCount="1657">
   <si>
     <t>gcf_id</t>
   </si>
@@ -12652,6213 +12652,6609 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
+    <row r="2" spans="1:16">
+      <c r="A2" s="1">
+        <v>202087</v>
+      </c>
+      <c r="B2">
         <v>851</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>961</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>410</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.9935370152761456</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>416</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.9210732471602038</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>442</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>499</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>851</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>580</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3.823006715830428</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>179</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>581</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.2432432432432432</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>200946</v>
+      </c>
+      <c r="B3">
         <v>131525</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>131574</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>410</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.7976354305265159</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>416</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.7760349743394792</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>443</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>500</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>131525</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>580</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3.643686049106186</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2485</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>582</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.2167344611290629</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
+        <v>203037</v>
+      </c>
+      <c r="B4">
         <v>8270</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>8310</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>411</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.9995163240628778</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>417</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.9975816203143894</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>444</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>501</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8270</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>580</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3.883445914028444</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>442</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>583</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.1770253929866989</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
+    <row r="5" spans="1:16">
+      <c r="A5" s="1">
+        <v>210179</v>
+      </c>
+      <c r="B5">
         <v>9091</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>9098</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>412</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.9996150038499616</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>418</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.9978550214497856</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>445</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>502</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9091</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>580</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>4.146292746714134</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>514</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>584</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.2176878231217688</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>213140</v>
+      </c>
+      <c r="B6">
         <v>1871</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1873</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>410</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.6646178514163549</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>416</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.652592196686264</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>446</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>503</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1871</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>580</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4.334721455303285</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>311</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>585</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.1624799572421165</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>208355</v>
+      </c>
+      <c r="B7">
         <v>6440</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6477</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>413</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.7714285714285715</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>419</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.5040372670807454</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>447</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>504</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6440</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>580</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4.806230685181393</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>831</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>584</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.1630434782608695</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
-        <v>110</v>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>202433</v>
       </c>
       <c r="B8">
         <v>110</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
         <v>410</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>420</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.9727272727272728</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>448</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>505</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>110</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>580</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3.105022760862103</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>586</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.1545454545454545</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>201767</v>
+      </c>
+      <c r="B9">
         <v>9590</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>9597</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>411</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.999791449426486</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>421</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.998696558915537</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>449</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>506</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>9590</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>580</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3.593635229893913</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>557</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>587</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.3305526590198123</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>323</v>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>225711</v>
       </c>
       <c r="B10">
         <v>323</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>323</v>
+      </c>
+      <c r="D10" t="s">
         <v>411</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.9504643962848296</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>421</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.9504643962848296</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>450</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>507</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>323</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>580</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2.339370674212037</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>25</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>588</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.2136222910216718</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>201637</v>
+      </c>
+      <c r="B11">
         <v>2195</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2196</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>410</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.8665148063781322</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>416</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.8369020501138952</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>451</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>508</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2195</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>580</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4.00619116465884</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>298</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>589</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.1394077448747152</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12">
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>201682</v>
+      </c>
+      <c r="B12">
         <v>8879</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>8883</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>412</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.9997747494087172</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>418</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.9996621241130758</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>452</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>509</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>8879</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>580</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4.339795424164805</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>888</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>590</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0.2181551976573938</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13">
-        <v>54</v>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>212848</v>
       </c>
       <c r="B13">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
         <v>411</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>421</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>453</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>510</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>54</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>580</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.261017675176656</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>10</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>581</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14">
-        <v>2796</v>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>201821</v>
       </c>
       <c r="B14">
         <v>2796</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>2796</v>
+      </c>
+      <c r="D14" t="s">
         <v>410</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.9974964234620888</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>416</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.9974964234620888</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>454</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>511</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2796</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>580</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2.181880275403768</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>121</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>581</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0.4102288984263233</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15">
-        <v>1317</v>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>215691</v>
       </c>
       <c r="B15">
         <v>1317</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>1317</v>
+      </c>
+      <c r="D15" t="s">
         <v>410</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>416</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>448</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>512</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1317</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>580</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.3524838864969262</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>27</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>588</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.9422930903568716</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16">
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>201041</v>
+      </c>
+      <c r="B16">
         <v>839</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>843</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>411</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.9773539928486292</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>422</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.9678188319427892</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>455</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>513</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>839</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>580</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.7426900081870912</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>23</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>581</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.8545887961859356</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17">
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>203601</v>
+      </c>
+      <c r="B17">
         <v>1406</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1418</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>411</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.9957325746799432</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>423</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.9935988620199148</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>456</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>514</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1406</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>580</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.92425771570938</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>77</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>581</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.5825035561877667</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18">
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>201941</v>
+      </c>
+      <c r="B18">
         <v>11864</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>11865</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>410</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.9999578556979096</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>416</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.9999578556979096</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>457</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>515</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>11864</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>580</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1.757707141416302</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>149</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>591</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.5756911665542819</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>248</v>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>220008</v>
       </c>
       <c r="B19">
         <v>248</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>248</v>
+      </c>
+      <c r="D19" t="s">
         <v>410</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>416</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>448</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>512</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>248</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>580</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.4087325163550682</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>8</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>591</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.9153225806451613</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20">
-        <v>42</v>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <v>220861</v>
       </c>
       <c r="B20">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
         <v>410</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>416</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>448</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>512</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>42</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>580</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1.365430646665911</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>8</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>592</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.4761904761904761</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21">
-        <v>25</v>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
+        <v>201608</v>
       </c>
       <c r="B21">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>410</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.72</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>416</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>458</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>516</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>25</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>580</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2.788853552253467</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>18</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>593</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.12</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22">
-        <v>982</v>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
+        <v>201624</v>
       </c>
       <c r="B22">
         <v>982</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>982</v>
+      </c>
+      <c r="D22" t="s">
         <v>410</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.9775967413441956</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>416</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.9775967413441956</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>459</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>517</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>982</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>580</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1.492555643082534</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>75</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>588</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.7393075356415478</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23">
-        <v>2</v>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
+        <v>220588</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
         <v>411</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>424</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>518</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>580</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>594</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24">
-        <v>5</v>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>226546</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>412</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>418</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>460</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>519</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>580</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>594</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25">
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
+        <v>205957</v>
+      </c>
+      <c r="B25">
         <v>5542</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>5570</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>410</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.9963911945146156</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>425</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.7537892457596536</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>461</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>520</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5542</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>580</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4.600042633892427</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>537</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>595</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.1553590761457957</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26">
+    <row r="26" spans="1:16">
+      <c r="A26" s="1">
+        <v>209725</v>
+      </c>
+      <c r="B26">
         <v>174</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>181</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>410</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.971264367816092</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>416</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.9080459770114944</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>462</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>521</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>174</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>580</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2.050432558628404</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>21</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>591</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.3793103448275862</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27">
+    <row r="27" spans="1:16">
+      <c r="A27" s="1">
+        <v>202473</v>
+      </c>
+      <c r="B27">
         <v>875</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1357</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>410</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>425</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.6948571428571428</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>448</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>522</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>875</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>580</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1.442461093834412</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>34</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>596</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.4605714285714286</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28">
+    <row r="28" spans="1:16">
+      <c r="A28" s="1">
+        <v>201585</v>
+      </c>
+      <c r="B28">
         <v>23851</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>24279</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>411</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.9993920590331642</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>426</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.990524506310008</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>463</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>523</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>23851</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>580</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2.587492262692966</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>319</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>597</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.352773468617668</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29">
-        <v>2576</v>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1">
+        <v>214329</v>
       </c>
       <c r="B29">
         <v>2576</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>2576</v>
+      </c>
+      <c r="D29" t="s">
         <v>411</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>426</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
         <v>453</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>524</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2576</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>580</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2.355704413295534</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>121</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>581</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.5058229813664596</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30">
+    <row r="30" spans="1:16">
+      <c r="A30" s="1">
+        <v>201888</v>
+      </c>
+      <c r="B30">
         <v>12444</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>12446</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>411</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.9999196399871424</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>426</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.9998392799742848</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>464</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>525</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>12444</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>580</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.2975825343930812</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>43</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>582</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.942462230793957</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31">
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
+        <v>202085</v>
+      </c>
+      <c r="B31">
         <v>6391</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>6399</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>411</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.9993741198560476</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>426</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.9989047097480832</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>465</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>526</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>6391</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>580</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2.793170432496865</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>209</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>587</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.2766390236269754</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32">
-        <v>805</v>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1">
+        <v>221946</v>
       </c>
       <c r="B32">
         <v>805</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>805</v>
+      </c>
+      <c r="D32" t="s">
         <v>412</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>418</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
         <v>460</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>519</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>805</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>580</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3.404393045344606</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>128</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>598</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.3130434782608696</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33">
-        <v>3</v>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
+        <v>222687</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
         <v>412</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
         <v>418</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
         <v>460</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>519</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>3</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>580</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>594</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34">
-        <v>680</v>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
+        <v>205309</v>
       </c>
       <c r="B34">
         <v>680</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>680</v>
+      </c>
+      <c r="D34" t="s">
         <v>412</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.711764705882353</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>418</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.711764705882353</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>466</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>527</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>680</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>580</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>2.216305673628966</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>42</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>599</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.35</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35">
-        <v>4</v>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
+        <v>209314</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>412</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>418</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
         <v>460</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>519</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>4</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>580</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.5623351446188083</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>2</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>594</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.75</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36">
+    <row r="36" spans="1:16">
+      <c r="A36" s="1">
+        <v>203993</v>
+      </c>
+      <c r="B36">
         <v>448</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>461</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>412</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.9832589285714286</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>418</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.9743303571428572</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>467</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>528</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>448</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>580</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>1.84423939331469</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>33</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>581</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>0.578125</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37">
-        <v>4</v>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>222180</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>412</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
         <v>418</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
         <v>460</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>519</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>4</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>580</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>594</v>
       </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38">
-        <v>40</v>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>208234</v>
       </c>
       <c r="B38">
         <v>40</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
         <v>412</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
         <v>418</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>460</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>519</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>40</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>580</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1.881107957700206</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>12</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>600</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.35</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39">
-        <v>13</v>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>219910</v>
       </c>
       <c r="B39">
         <v>13</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
         <v>412</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
         <v>418</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
         <v>460</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>519</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>13</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>580</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>594</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40">
-        <v>3</v>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
+        <v>221454</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
         <v>412</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>418</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
         <v>460</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>519</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>3</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>580</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>0</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
         <v>594</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41">
-        <v>4</v>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>219331</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
         <v>411</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
         <v>427</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
         <v>453</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>529</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>4</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>580</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>1.039720770839918</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>3</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>594</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>0.5</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42">
-        <v>211</v>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>201943</v>
       </c>
       <c r="B42">
         <v>211</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <v>211</v>
+      </c>
+      <c r="D42" t="s">
         <v>412</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
         <v>418</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.976303317535545</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>460</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>530</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>211</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>580</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>1.274398897049812</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>19</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>581</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>0.7203791469194313</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43">
-        <v>21</v>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>205851</v>
       </c>
       <c r="B43">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
         <v>412</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
         <v>418</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
         <v>460</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>519</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>21</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>580</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>1.228491677524597</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>5</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>601</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>0.5714285714285714</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44">
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>215277</v>
+      </c>
+      <c r="B44">
         <v>2606</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>2611</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>412</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.9990406753645432</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>418</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.9990406753645432</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>468</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>531</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>2606</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>580</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>4.735351644273965</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>459</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>602</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>0.08096699923254019</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45">
-        <v>112</v>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>201592</v>
       </c>
       <c r="B45">
         <v>112</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
         <v>412</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
         <v>418</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
         <v>460</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>519</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>112</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>580</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>3.682965993403841</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>56</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>603</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>0.1071428571428571</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46">
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>218961</v>
+      </c>
+      <c r="B46">
         <v>1057</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>1058</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>412</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.9995269631031219</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>418</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.9995269631031219</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>469</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>532</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1057</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>580</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>4.715484215873376</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>299</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>604</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>0.0662251655629139</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47">
-        <v>1415</v>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
+        <v>227201</v>
       </c>
       <c r="B47">
         <v>1415</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <v>1415</v>
+      </c>
+      <c r="D47" t="s">
         <v>412</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.9964664310954064</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>418</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.9915194346289752</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>470</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>533</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>1415</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>580</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>2.924511840356662</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>139</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>605</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>0.2445229681978798</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48">
-        <v>145</v>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
+        <v>206264</v>
       </c>
       <c r="B48">
         <v>145</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
         <v>412</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
         <v>418</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
         <v>460</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>519</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>145</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>580</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>1.431343323849352</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>13</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>606</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>0.6482758620689655</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49">
-        <v>16</v>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>212831</v>
       </c>
       <c r="B49">
         <v>16</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
         <v>412</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
         <v>418</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
         <v>460</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>519</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>16</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>580</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>0</v>
       </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
         <v>594</v>
       </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50">
-        <v>41</v>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>201334</v>
       </c>
       <c r="B50">
         <v>41</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
         <v>412</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
         <v>418</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
         <v>460</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>519</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>41</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>580</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>1.057011954958945</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>6</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>581</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>0.6585365853658537</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51">
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>201830</v>
+      </c>
+      <c r="B51">
         <v>3026</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>3401</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>410</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.9396893588896232</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>428</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.9255893368583388</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>471</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>534</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>3026</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>580</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>3.531749845316448</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>216</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>607</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>0.1440846001321877</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52">
+    <row r="52" spans="1:16">
+      <c r="A52" s="1">
+        <v>202082</v>
+      </c>
+      <c r="B52">
         <v>461</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>463</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>411</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.9989154013015183</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>429</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.9956616052060736</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>472</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>535</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>461</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>580</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>3.473324448484298</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>93</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>581</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>0.2060737527114967</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53">
+    <row r="53" spans="1:16">
+      <c r="A53" s="1">
+        <v>200980</v>
+      </c>
+      <c r="B53">
         <v>2916</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>2928</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>411</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.997599451303155</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>429</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.9972565157750344</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>473</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>536</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>2916</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>580</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>2.649217026145382</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>181</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>608</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>0.2860082304526748</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54">
-        <v>5</v>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1">
+        <v>222179</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>412</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
         <v>418</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
         <v>460</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>519</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>5</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>580</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>0</v>
       </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
         <v>594</v>
       </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55">
-        <v>15</v>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1">
+        <v>220966</v>
       </c>
       <c r="B55">
         <v>15</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
         <v>414</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
         <v>430</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
         <v>474</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>537</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>15</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>580</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>1.26347949406503</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>5</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>581</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>0.4666666666666667</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56">
-        <v>130</v>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>203048</v>
       </c>
       <c r="B56">
         <v>130</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
         <v>411</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
         <v>429</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
         <v>453</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>538</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>130</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>580</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>0.5223042841699631</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>5</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>581</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>0.8769230769230769</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57">
-        <v>275</v>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>203823</v>
       </c>
       <c r="B57">
         <v>275</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57">
+        <v>275</v>
+      </c>
+      <c r="D57" t="s">
         <v>412</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>0.6836363636363636</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>418</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0.68</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>475</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>539</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>275</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>580</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>2.80383349751342</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>59</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>584</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>0.3090909090909091</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58">
-        <v>232</v>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1">
+        <v>208857</v>
       </c>
       <c r="B58">
         <v>232</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58">
+        <v>232</v>
+      </c>
+      <c r="D58" t="s">
         <v>410</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>428</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.9956896551724138</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>448</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>540</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>232</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>580</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>1.728985160793484</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>20</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>595</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>0.4482758620689655</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59">
+    <row r="59" spans="1:16">
+      <c r="A59" s="1">
+        <v>202078</v>
+      </c>
+      <c r="B59">
         <v>3155</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>3218</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>410</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>0.9984152139461172</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>431</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>0.9839936608557844</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>476</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>541</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>3155</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>580</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>2.446827490633197</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>179</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>595</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>0.4732171156893819</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
-      <c r="A60">
-        <v>3</v>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1">
+        <v>222181</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
         <v>410</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
         <v>431</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>448</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>542</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>3</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>580</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>0.6365141682948128</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>2</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>594</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
-      <c r="A61">
-        <v>31</v>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1">
+        <v>217513</v>
       </c>
       <c r="B61">
         <v>31</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
         <v>415</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
         <v>432</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
         <v>477</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>543</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>31</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>580</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>2.045329069812914</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>13</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>581</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>0.4193548387096774</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62">
-        <v>298</v>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
+        <v>201902</v>
       </c>
       <c r="B62">
         <v>298</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62">
+        <v>298</v>
+      </c>
+      <c r="D62" t="s">
         <v>415</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
         <v>432</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>0.9966442953020134</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>477</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>544</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>298</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>580</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>3.967173204206723</v>
       </c>
-      <c r="L62">
-        <v>100</v>
-      </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>100</v>
+      </c>
+      <c r="N62" t="s">
         <v>609</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>0.1174496644295302</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
-      <c r="A63">
-        <v>6</v>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1">
+        <v>222337</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
         <v>412</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
         <v>418</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
         <v>460</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>519</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>6</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>580</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>0</v>
       </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
         <v>594</v>
       </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64">
+    <row r="64" spans="1:16">
+      <c r="A64" s="1">
+        <v>202549</v>
+      </c>
+      <c r="B64">
         <v>5865</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>5881</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>410</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>0.9996589940323956</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>431</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>0.9909633418584826</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>478</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>545</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>5865</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>580</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>1.980237669071172</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>226</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>582</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>0.5676044330775789</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65">
+    <row r="65" spans="1:16">
+      <c r="A65" s="1">
+        <v>218572</v>
+      </c>
+      <c r="B65">
         <v>968</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>970</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>410</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>0.9994834710743802</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>431</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>0.9979338842975206</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>479</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>546</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>968</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>580</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>2.345125165832058</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>67</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>581</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>0.4597107438016529</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66">
-        <v>111</v>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1">
+        <v>202009</v>
       </c>
       <c r="B66">
         <v>111</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66">
+        <v>111</v>
+      </c>
+      <c r="D66" t="s">
         <v>412</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
         <v>418</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
         <v>460</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>519</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>111</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>580</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>2.095716730977516</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>18</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>581</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>0.3963963963963964</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
-      <c r="A67">
+    <row r="67" spans="1:16">
+      <c r="A67" s="1">
+        <v>200963</v>
+      </c>
+      <c r="B67">
         <v>1250</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>1253</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>415</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>0.9992</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>433</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0.9903999999999999</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>480</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>547</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>1250</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>580</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>1.658162110180787</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>44</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>581</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>0.5064</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
-      <c r="A68">
-        <v>8</v>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1">
+        <v>208195</v>
       </c>
       <c r="B68">
         <v>8</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
         <v>411</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
         <v>434</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
         <v>453</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>548</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>8</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>580</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>0.5623351446188083</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>2</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>599</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>0.75</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
-      <c r="A69">
-        <v>3</v>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1">
+        <v>220074</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
         <v>413</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
         <v>435</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
         <v>481</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>549</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>3</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>580</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>0.6365141682948128</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>2</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>594</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
-      <c r="A70">
-        <v>3</v>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1">
+        <v>209317</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
         <v>413</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
         <v>419</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
         <v>481</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>550</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>580</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>0</v>
       </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
         <v>594</v>
       </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70" t="s">
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
-      <c r="A71">
-        <v>3</v>
+    <row r="71" spans="1:16">
+      <c r="A71" s="1">
+        <v>212832</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
         <v>413</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
         <v>419</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
         <v>481</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>550</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>3</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>580</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>0</v>
       </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
         <v>594</v>
       </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71" t="s">
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72">
-        <v>2</v>
+    <row r="72" spans="1:16">
+      <c r="A72" s="1">
+        <v>220601</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
         <v>415</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
         <v>432</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
         <v>477</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>543</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>2</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>580</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>0</v>
       </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
         <v>594</v>
       </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72" t="s">
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="A73">
-        <v>1</v>
+    <row r="73" spans="1:16">
+      <c r="A73" s="1">
+        <v>222182</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
         <v>413</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
         <v>419</v>
       </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
         <v>481</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>550</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
         <v>580</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>0</v>
       </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>594</v>
       </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73" t="s">
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74">
-        <v>2</v>
+    <row r="74" spans="1:16">
+      <c r="A74" s="1">
+        <v>221453</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
         <v>410</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
         <v>436</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
         <v>448</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>551</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>2</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>580</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>0</v>
       </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
         <v>594</v>
       </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74" t="s">
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75">
+    <row r="75" spans="1:16">
+      <c r="A75" s="1">
+        <v>220596</v>
+      </c>
+      <c r="B75">
         <v>2</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>5</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>410</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>0.5833333333333333</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>431</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>0.4166666666666666</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>482</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>552</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>2</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>580</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>0</v>
       </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75" t="s">
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
         <v>594</v>
       </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75" t="s">
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76">
-        <v>2</v>
+    <row r="76" spans="1:16">
+      <c r="A76" s="1">
+        <v>209303</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
         <v>415</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
         <v>433</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
         <v>477</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>553</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>2</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>580</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>0</v>
       </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76" t="s">
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
         <v>594</v>
       </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76" t="s">
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
-      <c r="A77">
-        <v>2</v>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1">
+        <v>220589</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
         <v>411</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
         <v>424</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
         <v>453</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>518</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>2</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>580</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>0</v>
       </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77" t="s">
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
         <v>594</v>
       </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
-      <c r="A78">
-        <v>4</v>
+    <row r="78" spans="1:16">
+      <c r="A78" s="1">
+        <v>209310</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
         <v>415</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
         <v>432</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
         <v>477</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>543</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>4</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>580</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>0</v>
       </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
         <v>594</v>
       </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78" t="s">
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
-      <c r="A79">
-        <v>3</v>
+    <row r="79" spans="1:16">
+      <c r="A79" s="1">
+        <v>209305</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
         <v>411</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
         <v>424</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
         <v>453</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>518</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>3</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>580</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>0</v>
       </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79" t="s">
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
         <v>594</v>
       </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79" t="s">
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80">
-        <v>2</v>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1">
+        <v>209312</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
         <v>411</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
         <v>424</v>
       </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
         <v>453</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>518</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>2</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>580</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>0</v>
       </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80" t="s">
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
         <v>594</v>
       </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80" t="s">
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
-      <c r="A81">
-        <v>1</v>
+    <row r="81" spans="1:16">
+      <c r="A81" s="1">
+        <v>224615</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
         <v>413</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
         <v>419</v>
       </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
         <v>481</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>550</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
         <v>580</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>0</v>
       </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
         <v>594</v>
       </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
-      <c r="A82">
-        <v>3</v>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1">
+        <v>209316</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
         <v>411</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
         <v>437</v>
       </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
         <v>453</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>554</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>3</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>580</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>0</v>
       </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82" t="s">
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
         <v>594</v>
       </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82" t="s">
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
-      <c r="A83">
+    <row r="83" spans="1:16">
+      <c r="A83" s="1">
+        <v>220604</v>
+      </c>
+      <c r="B83">
         <v>2</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>4</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>411</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
         <v>437</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>0.5</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>453</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>555</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>2</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>580</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>0</v>
       </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83" t="s">
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
         <v>594</v>
       </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83" t="s">
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
-      <c r="A84">
-        <v>3</v>
+    <row r="84" spans="1:16">
+      <c r="A84" s="1">
+        <v>219913</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
         <v>415</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
         <v>432</v>
       </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
         <v>477</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>543</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>3</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>580</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>0</v>
       </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84" t="s">
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
         <v>594</v>
       </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84" t="s">
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
-      <c r="A85">
-        <v>1</v>
+    <row r="85" spans="1:16">
+      <c r="A85" s="1">
+        <v>223006</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
         <v>411</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
         <v>424</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
         <v>453</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>518</v>
       </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
         <v>580</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>0</v>
       </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85" t="s">
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
         <v>594</v>
       </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85" t="s">
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
-      <c r="A86">
-        <v>4</v>
+    <row r="86" spans="1:16">
+      <c r="A86" s="1">
+        <v>209309</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
         <v>411</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
         <v>424</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
         <v>453</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>518</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>4</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>580</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>0</v>
       </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86" t="s">
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
         <v>594</v>
       </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86" t="s">
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
-      <c r="A87">
-        <v>1</v>
+    <row r="87" spans="1:16">
+      <c r="A87" s="1">
+        <v>211928</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
         <v>411</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
         <v>424</v>
       </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
         <v>453</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>518</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87" t="s">
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
         <v>580</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>0</v>
       </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87" t="s">
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
         <v>594</v>
       </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87" t="s">
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
-      <c r="A88">
-        <v>1</v>
+    <row r="88" spans="1:16">
+      <c r="A88" s="1">
+        <v>223005</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
         <v>411</v>
       </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
         <v>424</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
         <v>453</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>518</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
         <v>580</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>0</v>
       </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88" t="s">
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
         <v>594</v>
       </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88" t="s">
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
-      <c r="A89">
-        <v>1</v>
+    <row r="89" spans="1:16">
+      <c r="A89" s="1">
+        <v>211929</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
         <v>411</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
         <v>424</v>
       </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
         <v>453</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>518</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89" t="s">
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
         <v>580</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>0</v>
       </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89" t="s">
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
         <v>594</v>
       </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89" t="s">
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
-      <c r="A90">
-        <v>12</v>
+    <row r="90" spans="1:16">
+      <c r="A90" s="1">
+        <v>209304</v>
       </c>
       <c r="B90">
         <v>12</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
         <v>413</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
         <v>435</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
         <v>481</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>549</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>12</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>580</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>0</v>
       </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
         <v>594</v>
       </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90" t="s">
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
-      <c r="A91">
-        <v>2</v>
+    <row r="91" spans="1:16">
+      <c r="A91" s="1">
+        <v>209318</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
         <v>415</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
         <v>438</v>
       </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
         <v>477</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>556</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>2</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>580</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>0</v>
       </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91" t="s">
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
         <v>594</v>
       </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91" t="s">
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
-      <c r="A92">
-        <v>2</v>
+    <row r="92" spans="1:16">
+      <c r="A92" s="1">
+        <v>220602</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
         <v>413</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
         <v>435</v>
       </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
         <v>481</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>549</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>2</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>580</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>0</v>
       </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92" t="s">
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
         <v>594</v>
       </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92" t="s">
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
-      <c r="A93">
+    <row r="93" spans="1:16">
+      <c r="A93" s="1">
+        <v>220590</v>
+      </c>
+      <c r="B93">
         <v>2</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>4</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>413</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>0.5</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>430</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>0.5</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>483</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>557</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>2</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>580</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>0</v>
       </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93" t="s">
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
         <v>594</v>
       </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93" t="s">
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
-      <c r="A94">
+    <row r="94" spans="1:16">
+      <c r="A94" s="1">
+        <v>220597</v>
+      </c>
+      <c r="B94">
         <v>2</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>4</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>411</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>0.5</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>432</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>0.5</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>484</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>558</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>2</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>580</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>0</v>
       </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94" t="s">
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
         <v>594</v>
       </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94" t="s">
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
-      <c r="A95">
+    <row r="95" spans="1:16">
+      <c r="A95" s="1">
+        <v>219912</v>
+      </c>
+      <c r="B95">
         <v>6</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>17</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>413</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>0.3611111111111111</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>433</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>0.3611111111111111</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>485</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>559</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>6</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>580</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>0</v>
       </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-      <c r="M95" t="s">
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
         <v>594</v>
       </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95" t="s">
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
-      <c r="A96">
-        <v>4</v>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1">
+        <v>209302</v>
       </c>
       <c r="B96">
         <v>4</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
         <v>415</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
         <v>433</v>
       </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
         <v>477</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>553</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>4</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>580</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>0</v>
       </c>
-      <c r="L96">
-        <v>1</v>
-      </c>
-      <c r="M96" t="s">
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
         <v>594</v>
       </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96" t="s">
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
-      <c r="A97">
+    <row r="97" spans="1:16">
+      <c r="A97" s="1">
+        <v>209308</v>
+      </c>
+      <c r="B97">
         <v>3</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>6</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>415</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
         <v>439</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>0.5</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>477</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>560</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>3</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>580</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>0</v>
       </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97" t="s">
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
         <v>594</v>
       </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97" t="s">
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
-      <c r="A98">
+    <row r="98" spans="1:16">
+      <c r="A98" s="1">
+        <v>209319</v>
+      </c>
+      <c r="B98">
         <v>4</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>8</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>415</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
         <v>439</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>0.5</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>477</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>561</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>4</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>580</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>0</v>
       </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98" t="s">
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
         <v>594</v>
       </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98" t="s">
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
-      <c r="A99">
-        <v>1</v>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1">
+        <v>224613</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
         <v>413</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
         <v>435</v>
       </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
         <v>481</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>549</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
         <v>580</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>0</v>
       </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99" t="s">
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
         <v>594</v>
       </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99" t="s">
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
-      <c r="A100">
-        <v>1</v>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1">
+        <v>211931</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
         <v>415</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
         <v>433</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
         <v>477</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>553</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
         <v>580</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>0</v>
       </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100" t="s">
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
         <v>594</v>
       </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100" t="s">
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1">
+        <v>220116</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
         <v>415</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
         <v>433</v>
       </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
         <v>477</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>553</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
         <v>580</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>0</v>
       </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="M101" t="s">
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
         <v>594</v>
       </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101" t="s">
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
-      <c r="A102">
-        <v>1</v>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1">
+        <v>224612</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
         <v>413</v>
       </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
         <v>435</v>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
         <v>481</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>549</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
         <v>580</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>0</v>
       </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="M102" t="s">
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
         <v>594</v>
       </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102" t="s">
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
-      <c r="A103">
+    <row r="103" spans="1:16">
+      <c r="A103" s="1">
+        <v>209306</v>
+      </c>
+      <c r="B103">
         <v>3</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>6</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>413</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>0.5</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>419</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>0.5</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>486</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>562</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>3</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>580</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>0</v>
       </c>
-      <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103" t="s">
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
         <v>594</v>
       </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-      <c r="O103" t="s">
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
-      <c r="A104">
+    <row r="104" spans="1:16">
+      <c r="A104" s="1">
+        <v>209307</v>
+      </c>
+      <c r="B104">
         <v>4</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>8</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>413</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>0.5</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>419</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>0.5</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>487</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>563</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>4</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>580</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>0</v>
       </c>
-      <c r="L104">
-        <v>1</v>
-      </c>
-      <c r="M104" t="s">
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
         <v>594</v>
       </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="O104" t="s">
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
-      <c r="A105">
-        <v>4</v>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1">
+        <v>209301</v>
       </c>
       <c r="B105">
         <v>4</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
         <v>415</v>
       </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
         <v>433</v>
       </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
         <v>477</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>553</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>4</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>580</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>0</v>
       </c>
-      <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="M105" t="s">
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
         <v>594</v>
       </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="O105" t="s">
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
-      <c r="A106">
+    <row r="106" spans="1:16">
+      <c r="A106" s="1">
+        <v>222338</v>
+      </c>
+      <c r="B106">
         <v>2</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>4</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>413</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>0.5</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>440</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>0.5</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>486</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>564</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>2</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>580</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>0</v>
       </c>
-      <c r="L106">
-        <v>1</v>
-      </c>
-      <c r="M106" t="s">
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
         <v>594</v>
       </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-      <c r="O106" t="s">
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
-      <c r="A107">
+    <row r="107" spans="1:16">
+      <c r="A107" s="1">
+        <v>209320</v>
+      </c>
+      <c r="B107">
         <v>4</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>8</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>415</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
         <v>433</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>0.5</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>477</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>565</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>4</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>580</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>0</v>
       </c>
-      <c r="L107">
-        <v>1</v>
-      </c>
-      <c r="M107" t="s">
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
         <v>594</v>
       </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="O107" t="s">
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
-      <c r="A108">
+    <row r="108" spans="1:16">
+      <c r="A108" s="1">
+        <v>211930</v>
+      </c>
+      <c r="B108">
         <v>2</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>4</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>413</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>0.5</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>433</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>0.5</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>486</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>566</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>2</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>580</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>0</v>
       </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
-      <c r="M108" t="s">
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
         <v>594</v>
       </c>
-      <c r="N108">
-        <v>1</v>
-      </c>
-      <c r="O108" t="s">
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
-      <c r="A109">
+    <row r="109" spans="1:16">
+      <c r="A109" s="1">
+        <v>220592</v>
+      </c>
+      <c r="B109">
         <v>2</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>4</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>415</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
         <v>433</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>0.5</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>477</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>565</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>2</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>580</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>0</v>
       </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
-      <c r="M109" t="s">
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
         <v>594</v>
       </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-      <c r="O109" t="s">
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
-      <c r="A110">
+    <row r="110" spans="1:16">
+      <c r="A110" s="1">
+        <v>220594</v>
+      </c>
+      <c r="B110">
         <v>2</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>4</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>415</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>0.5</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>432</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>0.5</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>488</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>567</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>580</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>0</v>
       </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-      <c r="M110" t="s">
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
         <v>594</v>
       </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-      <c r="O110" t="s">
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
-      <c r="A111">
+    <row r="111" spans="1:16">
+      <c r="A111" s="1">
+        <v>219914</v>
+      </c>
+      <c r="B111">
         <v>5</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>10</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>413</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>0.5</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>441</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>0.5</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>489</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>568</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>5</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>580</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>0</v>
       </c>
-      <c r="L111">
-        <v>1</v>
-      </c>
-      <c r="M111" t="s">
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
         <v>594</v>
       </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111" t="s">
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
-      <c r="A112">
-        <v>4</v>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1">
+        <v>209299</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
         <v>413</v>
       </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
         <v>435</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
         <v>481</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>549</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>4</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>580</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>0</v>
       </c>
-      <c r="L112">
-        <v>1</v>
-      </c>
-      <c r="M112" t="s">
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
         <v>594</v>
       </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-      <c r="O112" t="s">
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
-      <c r="A113">
-        <v>2</v>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1">
+        <v>220599</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
         <v>413</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
         <v>435</v>
       </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
         <v>481</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>549</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>2</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>580</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>0</v>
       </c>
-      <c r="L113">
-        <v>1</v>
-      </c>
-      <c r="M113" t="s">
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
         <v>594</v>
       </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-      <c r="O113" t="s">
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
-      <c r="A114">
+    <row r="114" spans="1:16">
+      <c r="A114" s="1">
+        <v>224614</v>
+      </c>
+      <c r="B114">
         <v>2</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>4</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>415</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>0.5</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>439</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>0.5</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>490</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>569</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>2</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>580</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <v>0</v>
       </c>
-      <c r="L114">
-        <v>1</v>
-      </c>
-      <c r="M114" t="s">
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
         <v>594</v>
       </c>
-      <c r="N114">
-        <v>1</v>
-      </c>
-      <c r="O114" t="s">
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
-      <c r="A115">
-        <v>2</v>
+    <row r="115" spans="1:16">
+      <c r="A115" s="1">
+        <v>220595</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
         <v>415</v>
       </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
         <v>433</v>
       </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
         <v>477</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>553</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>2</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K115" t="s">
         <v>580</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>0</v>
       </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-      <c r="M115" t="s">
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
         <v>594</v>
       </c>
-      <c r="N115">
-        <v>1</v>
-      </c>
-      <c r="O115" t="s">
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
-      <c r="A116">
+    <row r="116" spans="1:16">
+      <c r="A116" s="1">
+        <v>220603</v>
+      </c>
+      <c r="B116">
         <v>2</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>6</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>415</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>439</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>491</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>570</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>2</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>580</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>0</v>
       </c>
-      <c r="L116">
-        <v>1</v>
-      </c>
-      <c r="M116" t="s">
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116" t="s">
         <v>594</v>
       </c>
-      <c r="N116">
-        <v>1</v>
-      </c>
-      <c r="O116" t="s">
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
-      <c r="A117">
+    <row r="117" spans="1:16">
+      <c r="A117" s="1">
+        <v>201240</v>
+      </c>
+      <c r="B117">
         <v>4</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>5</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>415</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>0.875</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>433</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>0.75</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>492</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>571</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>4</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
         <v>580</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>0</v>
       </c>
-      <c r="L117">
-        <v>1</v>
-      </c>
-      <c r="M117" t="s">
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s">
         <v>594</v>
       </c>
-      <c r="N117">
-        <v>1</v>
-      </c>
-      <c r="O117" t="s">
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
-      <c r="A118">
-        <v>1</v>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1">
+        <v>220115</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
         <v>415</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
         <v>433</v>
       </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
         <v>477</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>553</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
         <v>580</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>0</v>
       </c>
-      <c r="L118">
-        <v>1</v>
-      </c>
-      <c r="M118" t="s">
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118" t="s">
         <v>594</v>
       </c>
-      <c r="N118">
-        <v>1</v>
-      </c>
-      <c r="O118" t="s">
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
-      <c r="A119">
+    <row r="119" spans="1:16">
+      <c r="A119" s="1">
+        <v>209311</v>
+      </c>
+      <c r="B119">
         <v>2</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>4</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>413</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>0.5</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>433</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>0.5</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>486</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>566</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>2</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>580</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>0</v>
       </c>
-      <c r="L119">
-        <v>1</v>
-      </c>
-      <c r="M119" t="s">
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119" t="s">
         <v>594</v>
       </c>
-      <c r="N119">
-        <v>1</v>
-      </c>
-      <c r="O119" t="s">
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
-      <c r="A120">
+    <row r="120" spans="1:16">
+      <c r="A120" s="1">
+        <v>219911</v>
+      </c>
+      <c r="B120">
         <v>4</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>12</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>415</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>439</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>491</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>570</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>4</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" t="s">
         <v>580</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>0</v>
       </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120" t="s">
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120" t="s">
         <v>594</v>
       </c>
-      <c r="N120">
-        <v>1</v>
-      </c>
-      <c r="O120" t="s">
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
-      <c r="A121">
-        <v>2</v>
+    <row r="121" spans="1:16">
+      <c r="A121" s="1">
+        <v>209300</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
         <v>415</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
         <v>433</v>
       </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
         <v>477</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>553</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>2</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>580</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>0</v>
       </c>
-      <c r="L121">
-        <v>1</v>
-      </c>
-      <c r="M121" t="s">
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121" t="s">
         <v>594</v>
       </c>
-      <c r="N121">
-        <v>1</v>
-      </c>
-      <c r="O121" t="s">
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
-      <c r="A122">
-        <v>1</v>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1">
+        <v>220118</v>
       </c>
       <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
         <v>2</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>413</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>0.5</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>434</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>0.5</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>493</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>572</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
         <v>580</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>0</v>
       </c>
-      <c r="L122">
-        <v>1</v>
-      </c>
-      <c r="M122" t="s">
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122" t="s">
         <v>594</v>
       </c>
-      <c r="N122">
-        <v>1</v>
-      </c>
-      <c r="O122" t="s">
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
-      <c r="A123">
+    <row r="123" spans="1:16">
+      <c r="A123" s="1">
+        <v>209315</v>
+      </c>
+      <c r="B123">
         <v>2</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>6</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>413</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>419</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>494</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>573</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>2</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" t="s">
         <v>580</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>0</v>
       </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-      <c r="M123" t="s">
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123" t="s">
         <v>594</v>
       </c>
-      <c r="N123">
-        <v>1</v>
-      </c>
-      <c r="O123" t="s">
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
-      <c r="A124">
-        <v>1</v>
+    <row r="124" spans="1:16">
+      <c r="A124" s="1">
+        <v>220119</v>
       </c>
       <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
         <v>3</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>413</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>419</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>495</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>574</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-      <c r="J124" t="s">
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124" t="s">
         <v>580</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>0</v>
       </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124" t="s">
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124" t="s">
         <v>594</v>
       </c>
-      <c r="N124">
-        <v>1</v>
-      </c>
-      <c r="O124" t="s">
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
-      <c r="A125">
+    <row r="125" spans="1:16">
+      <c r="A125" s="1">
+        <v>219909</v>
+      </c>
+      <c r="B125">
         <v>3</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>6</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>415</v>
       </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
         <v>433</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>0.5</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>477</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>575</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>3</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>580</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>0</v>
       </c>
-      <c r="L125">
-        <v>1</v>
-      </c>
-      <c r="M125" t="s">
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125" t="s">
         <v>594</v>
       </c>
-      <c r="N125">
-        <v>1</v>
-      </c>
-      <c r="O125" t="s">
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
-      <c r="A126">
-        <v>2</v>
+    <row r="126" spans="1:16">
+      <c r="A126" s="1">
+        <v>201235</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
         <v>415</v>
       </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
         <v>433</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>0.5</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>477</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>576</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>2</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>580</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>0</v>
       </c>
-      <c r="L126">
-        <v>1</v>
-      </c>
-      <c r="M126" t="s">
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126" t="s">
         <v>594</v>
       </c>
-      <c r="N126">
-        <v>1</v>
-      </c>
-      <c r="O126" t="s">
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
-      <c r="A127">
-        <v>1</v>
+    <row r="127" spans="1:16">
+      <c r="A127" s="1">
+        <v>220117</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
         <v>413</v>
       </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
         <v>435</v>
       </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
         <v>481</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>549</v>
       </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127" t="s">
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127" t="s">
         <v>580</v>
       </c>
-      <c r="K127">
+      <c r="L127">
         <v>0</v>
       </c>
-      <c r="L127">
-        <v>1</v>
-      </c>
-      <c r="M127" t="s">
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127" t="s">
         <v>594</v>
       </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-      <c r="O127" t="s">
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
-      <c r="A128">
+    <row r="128" spans="1:16">
+      <c r="A128" s="1">
+        <v>222339</v>
+      </c>
+      <c r="B128">
         <v>2</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>4</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>415</v>
       </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
         <v>433</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>0.5</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>477</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>575</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>2</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>580</v>
       </c>
-      <c r="K128">
+      <c r="L128">
         <v>0</v>
       </c>
-      <c r="L128">
-        <v>1</v>
-      </c>
-      <c r="M128" t="s">
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128" t="s">
         <v>594</v>
       </c>
-      <c r="N128">
-        <v>1</v>
-      </c>
-      <c r="O128" t="s">
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
-      <c r="A129">
+    <row r="129" spans="1:16">
+      <c r="A129" s="1">
+        <v>209313</v>
+      </c>
+      <c r="B129">
         <v>2</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>6</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>413</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>433</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>496</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>577</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>2</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>580</v>
       </c>
-      <c r="K129">
+      <c r="L129">
         <v>0</v>
       </c>
-      <c r="L129">
-        <v>1</v>
-      </c>
-      <c r="M129" t="s">
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129" t="s">
         <v>594</v>
       </c>
-      <c r="N129">
-        <v>1</v>
-      </c>
-      <c r="O129" t="s">
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
-      <c r="A130">
-        <v>1</v>
+    <row r="130" spans="1:16">
+      <c r="A130" s="1">
+        <v>220591</v>
       </c>
       <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
         <v>2</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>413</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>0.5</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>433</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>0.5</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>486</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>566</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130" t="s">
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130" t="s">
         <v>580</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <v>0</v>
       </c>
-      <c r="L130">
-        <v>1</v>
-      </c>
-      <c r="M130" t="s">
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130" t="s">
         <v>594</v>
       </c>
-      <c r="N130">
-        <v>1</v>
-      </c>
-      <c r="O130" t="s">
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
-      <c r="A131">
+    <row r="131" spans="1:16">
+      <c r="A131" s="1">
+        <v>211932</v>
+      </c>
+      <c r="B131">
         <v>2</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>5</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>413</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>0.4166666666666666</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>419</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>0.4166666666666666</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>497</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>578</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>2</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>580</v>
       </c>
-      <c r="K131">
+      <c r="L131">
         <v>0</v>
       </c>
-      <c r="L131">
-        <v>1</v>
-      </c>
-      <c r="M131" t="s">
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131" t="s">
         <v>594</v>
       </c>
-      <c r="N131">
-        <v>1</v>
-      </c>
-      <c r="O131" t="s">
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
-      <c r="A132">
-        <v>1</v>
+    <row r="132" spans="1:16">
+      <c r="A132" s="1">
+        <v>222178</v>
       </c>
       <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
         <v>4</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>415</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>0.75</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>433</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>0.25</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>498</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>579</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-      <c r="J132" t="s">
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132" t="s">
         <v>580</v>
       </c>
-      <c r="K132">
+      <c r="L132">
         <v>0</v>
       </c>
-      <c r="L132">
-        <v>1</v>
-      </c>
-      <c r="M132" t="s">
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132" t="s">
         <v>594</v>
       </c>
-      <c r="N132">
-        <v>1</v>
-      </c>
-      <c r="O132" t="s">
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132" t="s">
         <v>676</v>
       </c>
     </row>
